--- a/data/input/2019-07-01_Baechu_wholesale.xlsx
+++ b/data/input/2019-07-01_Baechu_wholesale.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10185"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="2019-07-01_Baechu_wholesale" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="124">
   <si>
     <t>구분</t>
   </si>
@@ -27,358 +27,370 @@
     <t>평균</t>
   </si>
   <si>
-    <t>20,600</t>
+    <t>7,600</t>
+  </si>
+  <si>
+    <t>7,400</t>
+  </si>
+  <si>
+    <t>7,100</t>
+  </si>
+  <si>
+    <t>6,700</t>
+  </si>
+  <si>
+    <t>6,900</t>
+  </si>
+  <si>
+    <t>6,800</t>
+  </si>
+  <si>
+    <t>7,500</t>
+  </si>
+  <si>
+    <t>8,200</t>
+  </si>
+  <si>
+    <t>8,700</t>
+  </si>
+  <si>
+    <t>7,200</t>
+  </si>
+  <si>
+    <t>8,600</t>
+  </si>
+  <si>
+    <t>7,000</t>
+  </si>
+  <si>
+    <t>7,800</t>
+  </si>
+  <si>
+    <t>8,500</t>
+  </si>
+  <si>
+    <t>8,300</t>
+  </si>
+  <si>
+    <t>8,000</t>
+  </si>
+  <si>
+    <t>9,400</t>
+  </si>
+  <si>
+    <t>9,000</t>
+  </si>
+  <si>
+    <t>8,400</t>
+  </si>
+  <si>
+    <t>8,800</t>
+  </si>
+  <si>
+    <t>9,600</t>
+  </si>
+  <si>
+    <t>10,000</t>
+  </si>
+  <si>
+    <t>10,400</t>
+  </si>
+  <si>
+    <t>10,200</t>
+  </si>
+  <si>
+    <t>11,400</t>
+  </si>
+  <si>
+    <t>12,600</t>
+  </si>
+  <si>
+    <t>13,200</t>
+  </si>
+  <si>
+    <t>14,200</t>
+  </si>
+  <si>
+    <t>13,600</t>
+  </si>
+  <si>
+    <t>13,700</t>
+  </si>
+  <si>
+    <t>12,800</t>
+  </si>
+  <si>
+    <t>14,000</t>
+  </si>
+  <si>
+    <t>14,400</t>
+  </si>
+  <si>
+    <t>15,200</t>
+  </si>
+  <si>
+    <t>18,400</t>
+  </si>
+  <si>
+    <t>17,600</t>
+  </si>
+  <si>
+    <t>17,400</t>
+  </si>
+  <si>
+    <t>17,800</t>
+  </si>
+  <si>
+    <t>19,600</t>
+  </si>
+  <si>
+    <t>평년</t>
+  </si>
+  <si>
+    <t>6,173</t>
+  </si>
+  <si>
+    <t>6,189</t>
+  </si>
+  <si>
+    <t>6,212</t>
+  </si>
+  <si>
+    <t>6,340</t>
+  </si>
+  <si>
+    <t>6,612</t>
+  </si>
+  <si>
+    <t>6,738</t>
+  </si>
+  <si>
+    <t>6,867</t>
+  </si>
+  <si>
+    <t>7,076</t>
+  </si>
+  <si>
+    <t>7,329</t>
+  </si>
+  <si>
+    <t>7,812</t>
+  </si>
+  <si>
+    <t>7,203</t>
+  </si>
+  <si>
+    <t>7,204</t>
+  </si>
+  <si>
+    <t>8,901</t>
+  </si>
+  <si>
+    <t>9,062</t>
+  </si>
+  <si>
+    <t>9,542</t>
+  </si>
+  <si>
+    <t>8,683</t>
+  </si>
+  <si>
+    <t>8,939</t>
+  </si>
+  <si>
+    <t>9,266</t>
+  </si>
+  <si>
+    <t>9,536</t>
+  </si>
+  <si>
+    <t>9,540</t>
+  </si>
+  <si>
+    <t>9,602</t>
+  </si>
+  <si>
+    <t>9,637</t>
+  </si>
+  <si>
+    <t>9,665</t>
+  </si>
+  <si>
+    <t>9,745</t>
+  </si>
+  <si>
+    <t>10,385</t>
+  </si>
+  <si>
+    <t>10,405</t>
+  </si>
+  <si>
+    <t>8,953</t>
+  </si>
+  <si>
+    <t>9,013</t>
+  </si>
+  <si>
+    <t>9,073</t>
+  </si>
+  <si>
+    <t>12,070</t>
+  </si>
+  <si>
+    <t>12,177</t>
+  </si>
+  <si>
+    <t>12,250</t>
+  </si>
+  <si>
+    <t>12,497</t>
+  </si>
+  <si>
+    <t>13,465</t>
+  </si>
+  <si>
+    <t>13,612</t>
+  </si>
+  <si>
+    <t>13,753</t>
+  </si>
+  <si>
+    <t>13,973</t>
+  </si>
+  <si>
+    <t>14,273</t>
+  </si>
+  <si>
+    <t>14,893</t>
+  </si>
+  <si>
+    <t>15,000</t>
+  </si>
+  <si>
+    <t>15,013</t>
+  </si>
+  <si>
+    <t>15,177</t>
+  </si>
+  <si>
+    <t>15,212</t>
+  </si>
+  <si>
+    <t>15,615</t>
+  </si>
+  <si>
+    <t>15,515</t>
+  </si>
+  <si>
+    <t>15,295</t>
+  </si>
+  <si>
+    <t>15,264</t>
+  </si>
+  <si>
+    <t>15,047</t>
+  </si>
+  <si>
+    <t>14,510</t>
+  </si>
+  <si>
+    <t>14,507</t>
+  </si>
+  <si>
+    <t>14,387</t>
+  </si>
+  <si>
+    <t>13,467</t>
+  </si>
+  <si>
+    <t>13,407</t>
+  </si>
+  <si>
+    <t>13,193</t>
+  </si>
+  <si>
+    <t>12,993</t>
+  </si>
+  <si>
+    <t>12,810</t>
+  </si>
+  <si>
+    <t>12,270</t>
+  </si>
+  <si>
+    <t>12,117</t>
+  </si>
+  <si>
+    <t>11,886</t>
+  </si>
+  <si>
+    <t>11,550</t>
+  </si>
+  <si>
+    <t>10,563</t>
+  </si>
+  <si>
+    <t>서울</t>
+  </si>
+  <si>
+    <t>봄</t>
+  </si>
+  <si>
+    <t>6,000</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>고랭지</t>
+  </si>
+  <si>
+    <t>11,000</t>
+  </si>
+  <si>
+    <t>13,000</t>
+  </si>
+  <si>
+    <t>12,000</t>
+  </si>
+  <si>
+    <t>18,000</t>
+  </si>
+  <si>
+    <t>16,000</t>
+  </si>
+  <si>
+    <t>20,000</t>
+  </si>
+  <si>
+    <t>부산</t>
+  </si>
+  <si>
+    <t>6,500</t>
+  </si>
+  <si>
+    <t>17,000</t>
+  </si>
+  <si>
+    <t>대구</t>
+  </si>
+  <si>
+    <t>13,500</t>
+  </si>
+  <si>
+    <t>광주</t>
   </si>
   <si>
     <t>22,000</t>
   </si>
   <si>
-    <t>18,200</t>
-  </si>
-  <si>
-    <t>17,200</t>
-  </si>
-  <si>
-    <t>15,600</t>
-  </si>
-  <si>
-    <t>15,200</t>
-  </si>
-  <si>
-    <t>14,800</t>
-  </si>
-  <si>
-    <t>14,400</t>
-  </si>
-  <si>
-    <t>16,200</t>
-  </si>
-  <si>
-    <t>16,000</t>
-  </si>
-  <si>
-    <t>15,480</t>
-  </si>
-  <si>
-    <t>15,180</t>
-  </si>
-  <si>
-    <t>14,300</t>
-  </si>
-  <si>
-    <t>14,050</t>
-  </si>
-  <si>
-    <t>12,200</t>
-  </si>
-  <si>
-    <t>12,000</t>
-  </si>
-  <si>
-    <t>11,400</t>
-  </si>
-  <si>
-    <t>10,800</t>
-  </si>
-  <si>
-    <t>9,400</t>
-  </si>
-  <si>
-    <t>9,100</t>
-  </si>
-  <si>
-    <t>8,600</t>
-  </si>
-  <si>
-    <t>8,800</t>
-  </si>
-  <si>
-    <t>9,300</t>
-  </si>
-  <si>
-    <t>10,000</t>
-  </si>
-  <si>
-    <t>11,000</t>
-  </si>
-  <si>
-    <t>10,600</t>
-  </si>
-  <si>
-    <t>10,200</t>
-  </si>
-  <si>
-    <t>9,500</t>
-  </si>
-  <si>
-    <t>8,900</t>
-  </si>
-  <si>
-    <t>9,600</t>
-  </si>
-  <si>
-    <t>9,200</t>
-  </si>
-  <si>
-    <t>9,800</t>
-  </si>
-  <si>
-    <t>9,900</t>
-  </si>
-  <si>
-    <t>9,700</t>
-  </si>
-  <si>
-    <t>9,000</t>
-  </si>
-  <si>
-    <t>10,400</t>
-  </si>
-  <si>
-    <t>11,600</t>
-  </si>
-  <si>
-    <t>평년</t>
-  </si>
-  <si>
-    <t>10,289</t>
-  </si>
-  <si>
-    <t>9,956</t>
-  </si>
-  <si>
-    <t>9,780</t>
-  </si>
-  <si>
-    <t>9,260</t>
-  </si>
-  <si>
-    <t>9,047</t>
-  </si>
-  <si>
-    <t>8,733</t>
-  </si>
-  <si>
-    <t>8,289</t>
-  </si>
-  <si>
-    <t>7,041</t>
-  </si>
-  <si>
-    <t>7,004</t>
-  </si>
-  <si>
-    <t>6,847</t>
-  </si>
-  <si>
-    <t>6,541</t>
-  </si>
-  <si>
-    <t>6,321</t>
-  </si>
-  <si>
-    <t>6,023</t>
-  </si>
-  <si>
-    <t>6,007</t>
-  </si>
-  <si>
-    <t>6,000</t>
-  </si>
-  <si>
-    <t>5,920</t>
-  </si>
-  <si>
-    <t>5,848</t>
-  </si>
-  <si>
-    <t>5,838</t>
-  </si>
-  <si>
-    <t>5,801</t>
-  </si>
-  <si>
-    <t>5,740</t>
-  </si>
-  <si>
-    <t>5,825</t>
-  </si>
-  <si>
-    <t>5,472</t>
-  </si>
-  <si>
-    <t>4,652</t>
-  </si>
-  <si>
-    <t>4,670</t>
-  </si>
-  <si>
-    <t>4,701</t>
-  </si>
-  <si>
-    <t>4,753</t>
-  </si>
-  <si>
-    <t>4,797</t>
-  </si>
-  <si>
-    <t>5,947</t>
-  </si>
-  <si>
-    <t>5,960</t>
-  </si>
-  <si>
-    <t>5,926</t>
-  </si>
-  <si>
-    <t>5,955</t>
-  </si>
-  <si>
-    <t>6,055</t>
-  </si>
-  <si>
-    <t>6,105</t>
-  </si>
-  <si>
-    <t>6,127</t>
-  </si>
-  <si>
-    <t>6,226</t>
-  </si>
-  <si>
-    <t>6,260</t>
-  </si>
-  <si>
-    <t>6,262</t>
-  </si>
-  <si>
-    <t>6,250</t>
-  </si>
-  <si>
-    <t>6,181</t>
-  </si>
-  <si>
-    <t>6,070</t>
-  </si>
-  <si>
-    <t>5,789</t>
-  </si>
-  <si>
-    <t>5,725</t>
-  </si>
-  <si>
-    <t>5,678</t>
-  </si>
-  <si>
-    <t>5,658</t>
-  </si>
-  <si>
-    <t>5,753</t>
-  </si>
-  <si>
-    <t>5,738</t>
-  </si>
-  <si>
-    <t>5,770</t>
-  </si>
-  <si>
-    <t>5,811</t>
-  </si>
-  <si>
-    <t>5,782</t>
-  </si>
-  <si>
-    <t>5,741</t>
-  </si>
-  <si>
-    <t>5,700</t>
-  </si>
-  <si>
-    <t>5,626</t>
-  </si>
-  <si>
-    <t>5,596</t>
-  </si>
-  <si>
-    <t>5,588</t>
-  </si>
-  <si>
-    <t>7,699</t>
-  </si>
-  <si>
-    <t>7,675</t>
-  </si>
-  <si>
-    <t>7,672</t>
-  </si>
-  <si>
-    <t>7,662</t>
-  </si>
-  <si>
-    <t>7,423</t>
-  </si>
-  <si>
-    <t>7,421</t>
-  </si>
-  <si>
-    <t>서울</t>
-  </si>
-  <si>
-    <t>고랭지</t>
-  </si>
-  <si>
-    <t>20,000</t>
-  </si>
-  <si>
-    <t>17,000</t>
-  </si>
-  <si>
-    <t>15,000</t>
-  </si>
-  <si>
-    <t>14,000</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>가을</t>
-  </si>
-  <si>
-    <t>13,000</t>
-  </si>
-  <si>
-    <t>부산</t>
+    <t>대전</t>
   </si>
   <si>
     <t>19,000</t>
   </si>
   <si>
-    <t>18,000</t>
-  </si>
-  <si>
-    <t>대구</t>
-  </si>
-  <si>
-    <t>12,500</t>
-  </si>
-  <si>
-    <t>8,500</t>
-  </si>
-  <si>
-    <t>광주</t>
-  </si>
-  <si>
-    <t>23,000</t>
-  </si>
-  <si>
     <t>21,000</t>
-  </si>
-  <si>
-    <t>대전</t>
-  </si>
-  <si>
-    <t>8,000</t>
   </si>
 </sst>
 </file>
@@ -1524,7 +1536,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BL13"/>
+  <dimension ref="A1:BM13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection sqref="A1:B1"/>
@@ -1534,202 +1546,205 @@
   <cols>
     <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="64" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="65" width="9.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:65" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="1">
-        <v>44105</v>
+        <v>44013</v>
       </c>
       <c r="D1" s="1">
-        <v>44106</v>
+        <v>44014</v>
       </c>
       <c r="E1" s="1">
-        <v>44108</v>
+        <v>44015</v>
       </c>
       <c r="F1" s="1">
-        <v>44111</v>
+        <v>44016</v>
       </c>
       <c r="G1" s="1">
-        <v>44112</v>
+        <v>44017</v>
       </c>
       <c r="H1" s="1">
-        <v>44114</v>
+        <v>44020</v>
       </c>
       <c r="I1" s="1">
-        <v>44115</v>
+        <v>44021</v>
       </c>
       <c r="J1" s="1">
-        <v>44118</v>
+        <v>44022</v>
       </c>
       <c r="K1" s="1">
-        <v>44119</v>
+        <v>44023</v>
       </c>
       <c r="L1" s="1">
-        <v>44120</v>
+        <v>44024</v>
       </c>
       <c r="M1" s="1">
-        <v>44121</v>
+        <v>44027</v>
       </c>
       <c r="N1" s="1">
-        <v>44122</v>
+        <v>44028</v>
       </c>
       <c r="O1" s="1">
-        <v>44125</v>
+        <v>44029</v>
       </c>
       <c r="P1" s="1">
-        <v>44126</v>
+        <v>44030</v>
       </c>
       <c r="Q1" s="1">
-        <v>44127</v>
+        <v>44031</v>
       </c>
       <c r="R1" s="1">
-        <v>44128</v>
+        <v>44034</v>
       </c>
       <c r="S1" s="1">
-        <v>44129</v>
+        <v>44035</v>
       </c>
       <c r="T1" s="1">
-        <v>44132</v>
+        <v>44036</v>
       </c>
       <c r="U1" s="1">
-        <v>44133</v>
+        <v>44037</v>
       </c>
       <c r="V1" s="1">
-        <v>44134</v>
+        <v>44038</v>
       </c>
       <c r="W1" s="1">
-        <v>44135</v>
+        <v>44041</v>
       </c>
       <c r="X1" s="1">
-        <v>44136</v>
+        <v>44042</v>
       </c>
       <c r="Y1" s="1">
-        <v>44139</v>
+        <v>44043</v>
       </c>
       <c r="Z1" s="1">
-        <v>44140</v>
+        <v>44044</v>
       </c>
       <c r="AA1" s="1">
-        <v>44141</v>
+        <v>44045</v>
       </c>
       <c r="AB1" s="1">
-        <v>44142</v>
+        <v>44048</v>
       </c>
       <c r="AC1" s="1">
-        <v>44143</v>
+        <v>44049</v>
       </c>
       <c r="AD1" s="1">
-        <v>44146</v>
+        <v>44050</v>
       </c>
       <c r="AE1" s="1">
-        <v>44147</v>
+        <v>44051</v>
       </c>
       <c r="AF1" s="1">
-        <v>44148</v>
+        <v>44052</v>
       </c>
       <c r="AG1" s="1">
-        <v>44149</v>
+        <v>44055</v>
       </c>
       <c r="AH1" s="1">
-        <v>44150</v>
+        <v>44056</v>
       </c>
       <c r="AI1" s="1">
-        <v>44153</v>
+        <v>44057</v>
       </c>
       <c r="AJ1" s="1">
-        <v>44154</v>
+        <v>44059</v>
       </c>
       <c r="AK1" s="1">
-        <v>44155</v>
+        <v>44062</v>
       </c>
       <c r="AL1" s="1">
-        <v>44156</v>
+        <v>44063</v>
       </c>
       <c r="AM1" s="1">
-        <v>44157</v>
+        <v>44064</v>
       </c>
       <c r="AN1" s="1">
-        <v>44160</v>
+        <v>44065</v>
       </c>
       <c r="AO1" s="1">
-        <v>44161</v>
+        <v>44066</v>
       </c>
       <c r="AP1" s="1">
-        <v>44162</v>
+        <v>44069</v>
       </c>
       <c r="AQ1" s="1">
-        <v>44163</v>
+        <v>44070</v>
       </c>
       <c r="AR1" s="1">
-        <v>44164</v>
+        <v>44071</v>
       </c>
       <c r="AS1" s="1">
-        <v>44167</v>
+        <v>44072</v>
       </c>
       <c r="AT1" s="1">
-        <v>44168</v>
+        <v>44073</v>
       </c>
       <c r="AU1" s="1">
-        <v>44169</v>
+        <v>44076</v>
       </c>
       <c r="AV1" s="1">
-        <v>44170</v>
+        <v>44077</v>
       </c>
       <c r="AW1" s="1">
-        <v>44174</v>
+        <v>44078</v>
       </c>
       <c r="AX1" s="1">
-        <v>44175</v>
+        <v>44079</v>
       </c>
       <c r="AY1" s="1">
-        <v>44176</v>
+        <v>44080</v>
       </c>
       <c r="AZ1" s="1">
-        <v>44177</v>
+        <v>44083</v>
       </c>
       <c r="BA1" s="1">
-        <v>44178</v>
+        <v>44084</v>
       </c>
       <c r="BB1" s="1">
-        <v>44181</v>
+        <v>44085</v>
       </c>
       <c r="BC1" s="1">
-        <v>44182</v>
+        <v>44090</v>
       </c>
       <c r="BD1" s="1">
-        <v>44183</v>
+        <v>44091</v>
       </c>
       <c r="BE1" s="1">
-        <v>44184</v>
+        <v>44092</v>
       </c>
       <c r="BF1" s="1">
-        <v>44185</v>
+        <v>44093</v>
       </c>
       <c r="BG1" s="1">
-        <v>44188</v>
+        <v>44094</v>
       </c>
       <c r="BH1" s="1">
-        <v>44189</v>
+        <v>44097</v>
       </c>
       <c r="BI1" s="1">
-        <v>44191</v>
+        <v>44098</v>
       </c>
       <c r="BJ1" s="1">
-        <v>44192</v>
+        <v>44099</v>
       </c>
       <c r="BK1" s="1">
-        <v>44195</v>
+        <v>44100</v>
       </c>
       <c r="BL1" s="1">
-        <v>44196</v>
+        <v>44101</v>
+      </c>
+      <c r="BM1" s="1">
+        <v>44104</v>
       </c>
     </row>
-    <row r="2" spans="1:64" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:65" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -1738,22 +1753,22 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>8</v>
@@ -1762,414 +1777,420 @@
         <v>9</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="R2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="T2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="U2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="W2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="X2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AN2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AO2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AP2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AQ2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AR2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AS2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AD2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AT2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AU2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AV2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AJ2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AK2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AL2" s="2" t="s">
+      <c r="AW2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AM2" s="2" t="s">
+      <c r="AX2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AN2" s="2" t="s">
+      <c r="AY2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AZ2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AO2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AP2" s="2" t="s">
+      <c r="BA2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AQ2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AR2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AS2" s="2" t="s">
+      <c r="BB2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AT2" s="2" t="s">
+      <c r="BC2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AU2" s="2" t="s">
+      <c r="BD2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AV2" s="2" t="s">
+      <c r="BE2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AW2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AX2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AY2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AZ2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="BA2" s="2" t="s">
+      <c r="BF2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="BG2" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="BB2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="BC2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="BD2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="BE2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="BF2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="BG2" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="BH2" s="2" t="s">
         <v>36</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="BL2" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
+      </c>
+      <c r="BL2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="BM2" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:64" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:65" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>42</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AH3" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI3" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AJ3" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AK3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AQ3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AR3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AT3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AV3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AW3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AX3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AY3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AZ3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="BA3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BB3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BC3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BD3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BE3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BF3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="BG3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="BH3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="BI3" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="AL3" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AM3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AN3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AO3" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AP3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ3" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AR3" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AS3" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AT3" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AU3" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AV3" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AW3" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AX3" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AY3" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AZ3" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="BA3" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="BB3" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="BC3" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="BD3" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="BE3" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BF3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BG3" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="BH3" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="BI3" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="BJ3" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="BK3" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BL3" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
+      </c>
+      <c r="BL3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="BM3" s="3" t="s">
+        <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:64" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:65" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="T4" s="2" t="s">
         <v>106</v>
@@ -2303,11 +2324,14 @@
       <c r="BK4" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="BL4" s="3" t="s">
+      <c r="BL4" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="BM4" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:64" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:65" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11"/>
       <c r="B5" s="2" t="s">
         <v>107</v>
@@ -2349,351 +2373,357 @@
         <v>106</v>
       </c>
       <c r="O5" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AL5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AM5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AN5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AO5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AP5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AQ5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AR5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AS5" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AT5" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AU5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AV5" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AW5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AX5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AY5" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AZ5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="BA5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="BB5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="BC5" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="BD5" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="BE5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="BF5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="BG5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="BH5" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="BI5" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="BJ5" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="BK5" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="BL5" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="BM5" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:65" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="P5" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="W5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="X5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AJ5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AK5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AL5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AN5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AO5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AP5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AQ5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AR5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AS5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AT5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AU5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AV5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AW5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AX5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AY5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AZ5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="BA5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="BB5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="BC5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="BD5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="BE5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="BF5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="BG5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="BH5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BI5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BJ5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="BK5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="BL5" s="3" t="s">
-        <v>17</v>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z6" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA6" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB6" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC6" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD6" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE6" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF6" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG6" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AH6" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI6" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AJ6" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AK6" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL6" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AM6" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AN6" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AO6" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AP6" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AQ6" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AR6" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AS6" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AT6" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AU6" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AV6" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AW6" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AX6" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AY6" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AZ6" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="BA6" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="BB6" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="BC6" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="BD6" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="BE6" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="BF6" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="BG6" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="BH6" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="BI6" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="BJ6" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="BK6" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="BL6" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="BM6" s="3" t="s">
+        <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:64" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="U6" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="V6" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="W6" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="X6" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y6" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Z6" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AA6" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AB6" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AC6" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AD6" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AE6" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AF6" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AG6" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AH6" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AI6" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AJ6" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AK6" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AL6" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AM6" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AN6" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AO6" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AP6" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AQ6" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AR6" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AS6" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AT6" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AU6" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AV6" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AW6" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AX6" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AY6" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AZ6" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="BA6" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="BB6" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="BC6" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="BD6" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="BE6" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="BF6" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="BG6" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="BH6" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="BI6" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="BJ6" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="BK6" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="BL6" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:64" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:65" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11"/>
       <c r="B7" s="2" t="s">
         <v>107</v>
@@ -2735,351 +2765,357 @@
         <v>106</v>
       </c>
       <c r="O7" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="W7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="X7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AL7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AM7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AN7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AO7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AP7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AQ7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AR7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AS7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AT7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AU7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AV7" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AW7" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AX7" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AY7" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AZ7" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="BA7" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="BB7" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="BC7" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="BD7" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="BE7" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="BF7" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="BG7" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="BH7" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="BI7" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="BJ7" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="BK7" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="BL7" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="BM7" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:65" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="T7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="U7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="V7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="W7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="X7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AG7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AJ7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AK7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AL7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AM7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AN7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AO7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AP7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AQ7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AR7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AS7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AT7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AU7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AV7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AW7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AX7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AY7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AZ7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="BA7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="BB7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="BC7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="BD7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="BE7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="BF7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="BG7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="BH7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BI7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BJ7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="BK7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="BL7" s="3" t="s">
-        <v>26</v>
+      <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="W8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="X8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AH8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AJ8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AK8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AM8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AN8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AO8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AP8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AQ8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AR8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AS8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AT8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AU8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AV8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AW8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AX8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AY8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AZ8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="BA8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="BB8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="BC8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="BD8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="BE8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="BF8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="BG8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="BH8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="BI8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="BJ8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="BK8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="BL8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="BM8" s="3" t="s">
+        <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:64" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="S8" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="T8" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="U8" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="V8" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="W8" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="X8" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y8" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Z8" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AA8" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AB8" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AC8" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AD8" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AE8" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AF8" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AG8" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AH8" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AI8" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AJ8" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AK8" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AL8" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AM8" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AN8" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AO8" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AP8" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AQ8" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AR8" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AS8" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AT8" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AU8" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AV8" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AW8" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AX8" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AY8" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AZ8" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="BA8" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="BB8" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="BC8" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="BD8" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="BE8" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="BF8" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="BG8" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="BH8" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="BI8" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="BJ8" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="BK8" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="BL8" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="1:64" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:65" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="11"/>
       <c r="B9" s="2" t="s">
         <v>107</v>
@@ -3121,213 +3157,216 @@
         <v>106</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="R9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="W9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="X9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AL9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AM9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AN9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AO9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AP9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AQ9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AR9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AS9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AT9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AU9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AV9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AW9" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="S9" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="T9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="U9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="V9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="W9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="X9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA9" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AB9" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AC9" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AD9" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AE9" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AF9" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AG9" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AH9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AK9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AN9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AO9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AP9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AQ9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AR9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AS9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AT9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AU9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AV9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AW9" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="AX9" s="2" t="s">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="AY9" s="2" t="s">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="AZ9" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="BA9" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="BB9" s="2" t="s">
-        <v>29</v>
+        <v>118</v>
       </c>
       <c r="BC9" s="2" t="s">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="BD9" s="2" t="s">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="BE9" s="2" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="BF9" s="2" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="BG9" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="BH9" s="2" t="s">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="BI9" s="2" t="s">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="BJ9" s="2" t="s">
-        <v>29</v>
+        <v>111</v>
       </c>
       <c r="BK9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="BL9" s="3" t="s">
-        <v>26</v>
+        <v>111</v>
+      </c>
+      <c r="BL9" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="BM9" s="3" t="s">
+        <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:64" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:65" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="F10" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>11</v>
+        <v>115</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>105</v>
+        <v>8</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>105</v>
+        <v>8</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="T10" s="2" t="s">
         <v>106</v>
@@ -3461,11 +3500,14 @@
       <c r="BK10" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="BL10" s="3" t="s">
+      <c r="BL10" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="BM10" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:64" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:65" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11"/>
       <c r="B11" s="2" t="s">
         <v>107</v>
@@ -3507,351 +3549,357 @@
         <v>106</v>
       </c>
       <c r="O11" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="W11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="X11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AL11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AM11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AN11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AO11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AP11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AQ11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AR11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AS11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AT11" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AU11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AV11" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AW11" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AX11" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AY11" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AZ11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="BA11" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="BB11" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="BC11" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="BD11" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="BE11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="BF11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="BG11" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="BH11" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="BI11" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="BJ11" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="BK11" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="BL11" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="BM11" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:65" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="P11" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="S11" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="T11" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="U11" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="V11" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="W11" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="X11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB11" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AC11" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AD11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AG11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AJ11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AK11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AL11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AN11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AO11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AP11" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AQ11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AR11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AS11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AT11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AU11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AV11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AW11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AX11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AY11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AZ11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="BA11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="BB11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="BC11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="BD11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="BE11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="BF11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="BG11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="BH11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BI11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BJ11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="BK11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="BL11" s="3" t="s">
-        <v>17</v>
+      <c r="C12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="V12" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="W12" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="X12" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y12" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z12" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA12" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB12" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC12" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD12" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE12" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF12" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG12" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AH12" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI12" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AJ12" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AK12" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL12" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AM12" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AN12" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AO12" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AP12" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AQ12" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AR12" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AS12" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AT12" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AU12" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AV12" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AW12" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AX12" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AY12" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AZ12" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="BA12" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="BB12" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="BC12" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="BD12" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="BE12" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="BF12" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="BG12" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="BH12" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="BI12" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="BJ12" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="BK12" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="BL12" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="BM12" s="3" t="s">
+        <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:64" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="S12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="T12" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="U12" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="V12" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="W12" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="X12" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y12" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Z12" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AA12" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AB12" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AC12" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AD12" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AE12" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AF12" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AG12" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AH12" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AI12" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AJ12" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AK12" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AL12" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AM12" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AN12" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AO12" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AP12" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AQ12" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AR12" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AS12" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AT12" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AU12" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AV12" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AW12" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AX12" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AY12" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AZ12" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="BA12" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="BB12" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="BC12" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="BD12" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="BE12" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="BF12" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="BG12" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="BH12" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="BI12" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="BJ12" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="BK12" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="BL12" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="13" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A13" s="12"/>
       <c r="B13" s="4" t="s">
         <v>107</v>
@@ -3893,154 +3941,157 @@
         <v>106</v>
       </c>
       <c r="O13" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="T13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="P13" s="4" t="s">
+      <c r="U13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="Q13" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="R13" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="S13" s="4" t="s">
+      <c r="V13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="W13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="X13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE13" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="T13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="U13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="V13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="W13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="X13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y13" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z13" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA13" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB13" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC13" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD13" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE13" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="AF13" s="4" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="AG13" s="4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="AH13" s="4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AI13" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ13" s="4" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AK13" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL13" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM13" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN13" s="4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="AO13" s="4" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="AP13" s="4" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="AQ13" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AR13" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AS13" s="4" t="s">
-        <v>25</v>
+        <v>108</v>
       </c>
       <c r="AT13" s="4" t="s">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="AU13" s="4" t="s">
-        <v>26</v>
+        <v>109</v>
       </c>
       <c r="AV13" s="4" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="AW13" s="4" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="AX13" s="4" t="s">
-        <v>25</v>
+        <v>116</v>
       </c>
       <c r="AY13" s="4" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
       <c r="AZ13" s="4" t="s">
-        <v>26</v>
+        <v>112</v>
       </c>
       <c r="BA13" s="4" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="BB13" s="4" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
       <c r="BC13" s="4" t="s">
-        <v>25</v>
+        <v>116</v>
       </c>
       <c r="BD13" s="4" t="s">
-        <v>26</v>
+        <v>122</v>
       </c>
       <c r="BE13" s="4" t="s">
-        <v>25</v>
+        <v>116</v>
       </c>
       <c r="BF13" s="4" t="s">
-        <v>25</v>
+        <v>116</v>
       </c>
       <c r="BG13" s="4" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
       <c r="BH13" s="4" t="s">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="BI13" s="4" t="s">
-        <v>25</v>
+        <v>111</v>
       </c>
       <c r="BJ13" s="4" t="s">
-        <v>25</v>
+        <v>113</v>
       </c>
       <c r="BK13" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="BL13" s="5" t="s">
-        <v>17</v>
+        <v>123</v>
+      </c>
+      <c r="BL13" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="BM13" s="5" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/2019-07-01_Baechu_wholesale.xlsx
+++ b/data/input/2019-07-01_Baechu_wholesale.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="12255"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="14205" windowHeight="10185"/>
   </bookViews>
   <sheets>
     <sheet name="2019-07-01_Baechu_wholesale" sheetId="2" r:id="rId1"/>
